--- a/dados_gerais/Tabela_formados.xlsx
+++ b/dados_gerais/Tabela_formados.xlsx
@@ -7,24 +7,21 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet 3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet 4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet 5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sheet 6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Sheet 7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Sheet 8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Sheet 9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Total" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t xml:space="preserve">DIPLOMADOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1º Sem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2º Sem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">Graduação</t>
   </si>
@@ -368,71 +365,171 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
         <v>2710</v>
       </c>
-      <c r="C2" t="n">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>866</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
         <v>2415</v>
       </c>
-      <c r="D2" t="n">
-        <v>5125</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>866</v>
-      </c>
-      <c r="C3" t="n">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
         <v>634</v>
       </c>
-      <c r="D3" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n">
-        <v>351</v>
-      </c>
-      <c r="C4" t="n">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
         <v>287</v>
       </c>
-      <c r="D4" t="n">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3927</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3336</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7263</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
